--- a/UploadMulti/static/Excel_Files/Features.xlsx
+++ b/UploadMulti/static/Excel_Files/Features.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,14 +349,112 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Employee Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Address of Employee</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Address of Company</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Base Salary</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Date of Agreement</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Supervisor Information</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Bonus</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Notice Period</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Other Compensation</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Non Monetary Benefits</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Health Insurance</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>401k</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>At will</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Vacation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/UploadMulti/static/Excel_Files/Features.xlsx
+++ b/UploadMulti/static/Excel_Files/Features.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -349,112 +345,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Employee Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Address of Employee</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Company Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Address of Company</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Base Salary</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Date of Agreement</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Supervisor Information</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Bonus</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Notice Period</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Other Compensation</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Non Monetary Benefits</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Health Insurance</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>401k</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>At will</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Vacation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/UploadMulti/static/Excel_Files/Features.xlsx
+++ b/UploadMulti/static/Excel_Files/Features.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,14 +349,322 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Document_Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Employee_Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Address_of_Employee</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Company_Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Address_of_Company</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Roles</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Base_Salary</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Date_of_Agreement</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Start_Date</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>End_Date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Supervisor_Information</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Bonus</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Notice_Period</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Other_Compensation</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Non_Monetary_Benefits</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Health_Insurance</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>_401k</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>At_will</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Vacation</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>docs/320187_2007-07-19_EXHIBIT_10.1_-_EMPLOYMENT_AGREEMENT_MUmibgE.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>David Ayre</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9 Golf Court Ridgefield, Conn. 06877</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Vice President Of Global Human Resources</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>$625,000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>07-16-2007</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Bonus Of $750,000</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>with or without notice</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Deferred Compensation Plan, Long Term Incentive Plan, Performance Sharing Plan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Purchase 50,000 Shares Of Nike</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>docs/216228_2005-08-05_EMPLOYMENT_AGREEMENT_JpE3lYE_DeM3jQ8.txt</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>George E. Minnich</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6 Whitehall Place Farmington, Ct 06032</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Itt Industries, Inc</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4 West Red Oak Lane White Plains, Ny 10604</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Senior Vice President</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>$460,000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>07-01-2005</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Report Directly To Steven R. Loranger, Chairman, President And Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>75% Of Your Annual Base Salary</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2004 Target Award Of $250,000, 2005 Target Award Of $500,000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Automobile Allowance, Life Insurance Plan, Salaried Long-Term Disability Insurance Plan, Salaried Short-Term Disability Plan</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>25,000 Nonqualified Stock Options</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Four Weeks Of Vacation</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/UploadMulti/static/Excel_Files/Features.xlsx
+++ b/UploadMulti/static/Excel_Files/Features.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -349,322 +345,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Document_Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Employee_Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Address_of_Employee</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Company_Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Address_of_Company</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Roles</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Base_Salary</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Date_of_Agreement</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Start_Date</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>End_Date</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Supervisor_Information</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Bonus</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Notice_Period</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Other_Compensation</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Non_Monetary_Benefits</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Health_Insurance</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>_401k</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>At_will</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Vacation</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>docs/320187_2007-07-19_EXHIBIT_10.1_-_EMPLOYMENT_AGREEMENT_MUmibgE.txt</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>David Ayre</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9 Golf Court Ridgefield, Conn. 06877</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Vice President Of Global Human Resources</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>$625,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>07-16-2007</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Bonus Of $750,000</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>with or without notice</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Deferred Compensation Plan, Long Term Incentive Plan, Performance Sharing Plan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Purchase 50,000 Shares Of Nike</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>docs/216228_2005-08-05_EMPLOYMENT_AGREEMENT_JpE3lYE_DeM3jQ8.txt</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>George E. Minnich</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6 Whitehall Place Farmington, Ct 06032</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Itt Industries, Inc</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4 West Red Oak Lane White Plains, Ny 10604</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Senior Vice President</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>$460,000</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>07-01-2005</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Report Directly To Steven R. Loranger, Chairman, President And Chief Executive Officer</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>75% Of Your Annual Base Salary</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2004 Target Award Of $250,000, 2005 Target Award Of $500,000</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Automobile Allowance, Life Insurance Plan, Salaried Long-Term Disability Insurance Plan, Salaried Short-Term Disability Plan</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>25,000 Nonqualified Stock Options</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Four Weeks Of Vacation</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v>331</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>